--- a/contratos/contratos-11-2015.xlsx
+++ b/contratos/contratos-11-2015.xlsx
@@ -676,7 +676,7 @@
     <t>DEVOL S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BONNIN MARTIN ANIBAL</t>
@@ -733,7 +733,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>LAMBERT CARLOS MIGUEL</t>
@@ -748,7 +748,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>WEIGANDT GERARDO ARTURO</t>
@@ -940,7 +940,7 @@
     <t>TITO SONIDO</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>PINTURERIA COLORSHOP</t>
@@ -1081,445 +1081,445 @@
     <t>119</t>
   </si>
   <si>
-    <t>8.990,50</t>
-  </si>
-  <si>
-    <t>14.028,31</t>
-  </si>
-  <si>
-    <t>4.840,00</t>
-  </si>
-  <si>
-    <t>432,82</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>442.824,62</t>
-  </si>
-  <si>
-    <t>5.426,00</t>
-  </si>
-  <si>
-    <t>52.150,04</t>
-  </si>
-  <si>
-    <t>15.747,00</t>
-  </si>
-  <si>
-    <t>20.226,88</t>
-  </si>
-  <si>
-    <t>2.203,00</t>
-  </si>
-  <si>
-    <t>18.675,16</t>
-  </si>
-  <si>
-    <t>19.639,46</t>
-  </si>
-  <si>
-    <t>382,50</t>
-  </si>
-  <si>
-    <t>7.340,00</t>
-  </si>
-  <si>
-    <t>745,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>12.087,67</t>
-  </si>
-  <si>
-    <t>1.706,05</t>
-  </si>
-  <si>
-    <t>4.529,37</t>
-  </si>
-  <si>
-    <t>441,60</t>
-  </si>
-  <si>
-    <t>1.155,50</t>
-  </si>
-  <si>
-    <t>3.715,53</t>
-  </si>
-  <si>
-    <t>21.944,80</t>
-  </si>
-  <si>
-    <t>8.775,00</t>
-  </si>
-  <si>
-    <t>76.020,90</t>
-  </si>
-  <si>
-    <t>139.292,25</t>
-  </si>
-  <si>
-    <t>4.598,00</t>
-  </si>
-  <si>
-    <t>25.203,99</t>
-  </si>
-  <si>
-    <t>2.761,42</t>
-  </si>
-  <si>
-    <t>4.236,00</t>
-  </si>
-  <si>
-    <t>11.062,16</t>
-  </si>
-  <si>
-    <t>1.229,28</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>864,72</t>
-  </si>
-  <si>
-    <t>246,27</t>
-  </si>
-  <si>
-    <t>36.998,90</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>190.227,31</t>
-  </si>
-  <si>
-    <t>15.870,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>951,76</t>
-  </si>
-  <si>
-    <t>413,20</t>
-  </si>
-  <si>
-    <t>1.481,72</t>
-  </si>
-  <si>
-    <t>2.348,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>1.638,30</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>17.283,00</t>
-  </si>
-  <si>
-    <t>1.610,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>81.127,04</t>
-  </si>
-  <si>
-    <t>1.991,25</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>190.705,00</t>
-  </si>
-  <si>
-    <t>20.030,00</t>
-  </si>
-  <si>
-    <t>6.665,00</t>
-  </si>
-  <si>
-    <t>1.720,00</t>
-  </si>
-  <si>
-    <t>8.480,00</t>
-  </si>
-  <si>
-    <t>238,00</t>
-  </si>
-  <si>
-    <t>372,60</t>
-  </si>
-  <si>
-    <t>2.906,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>391.178,31</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>11,27</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>629,32</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>21.624,00</t>
-  </si>
-  <si>
-    <t>2.434,00</t>
-  </si>
-  <si>
-    <t>4.122,50</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>27.888,00</t>
-  </si>
-  <si>
-    <t>114,00</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>33.297,90</t>
-  </si>
-  <si>
-    <t>3.439,50</t>
-  </si>
-  <si>
-    <t>778,00</t>
-  </si>
-  <si>
-    <t>423,86</t>
-  </si>
-  <si>
-    <t>568,70</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>14.800,00</t>
-  </si>
-  <si>
-    <t>7.949,00</t>
-  </si>
-  <si>
-    <t>1.806,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>3.080,00</t>
-  </si>
-  <si>
-    <t>456,50</t>
-  </si>
-  <si>
-    <t>3.505,06</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.657,50</t>
-  </si>
-  <si>
-    <t>19.199,98</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.548,86</t>
-  </si>
-  <si>
-    <t>1.196,00</t>
-  </si>
-  <si>
-    <t>1.030,00</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>279,11</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>35,91</t>
-  </si>
-  <si>
-    <t>1.410,00</t>
-  </si>
-  <si>
-    <t>2.129,60</t>
-  </si>
-  <si>
-    <t>164,74</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>2.005,24</t>
-  </si>
-  <si>
-    <t>844,00</t>
-  </si>
-  <si>
-    <t>2.796,00</t>
-  </si>
-  <si>
-    <t>9.910,00</t>
-  </si>
-  <si>
-    <t>2.840,79</t>
-  </si>
-  <si>
-    <t>14.485,00</t>
-  </si>
-  <si>
-    <t>19.780,00</t>
-  </si>
-  <si>
-    <t>314,38</t>
-  </si>
-  <si>
-    <t>4.816,82</t>
-  </si>
-  <si>
-    <t>1.122,22</t>
-  </si>
-  <si>
-    <t>95.182,50</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>3.860,00</t>
-  </si>
-  <si>
-    <t>2.120,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>305,50</t>
-  </si>
-  <si>
-    <t>8.735,23</t>
-  </si>
-  <si>
-    <t>2.607,13</t>
-  </si>
-  <si>
-    <t>837.922,72</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>5.464,00</t>
-  </si>
-  <si>
-    <t>101.340,00</t>
-  </si>
-  <si>
-    <t>9.870,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>960,74</t>
-  </si>
-  <si>
-    <t>73.278,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>6.915,00</t>
-  </si>
-  <si>
-    <t>7.070,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
+    <t>8990.50</t>
+  </si>
+  <si>
+    <t>14028.31</t>
+  </si>
+  <si>
+    <t>4840.00</t>
+  </si>
+  <si>
+    <t>432.82</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>442824.62</t>
+  </si>
+  <si>
+    <t>5426.00</t>
+  </si>
+  <si>
+    <t>52150.04</t>
+  </si>
+  <si>
+    <t>15747.00</t>
+  </si>
+  <si>
+    <t>20226.88</t>
+  </si>
+  <si>
+    <t>2203.00</t>
+  </si>
+  <si>
+    <t>18675.16</t>
+  </si>
+  <si>
+    <t>19639.46</t>
+  </si>
+  <si>
+    <t>382.50</t>
+  </si>
+  <si>
+    <t>7340.00</t>
+  </si>
+  <si>
+    <t>745.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>12087.67</t>
+  </si>
+  <si>
+    <t>1706.05</t>
+  </si>
+  <si>
+    <t>4529.37</t>
+  </si>
+  <si>
+    <t>441.60</t>
+  </si>
+  <si>
+    <t>1155.50</t>
+  </si>
+  <si>
+    <t>3715.53</t>
+  </si>
+  <si>
+    <t>21944.80</t>
+  </si>
+  <si>
+    <t>8775.00</t>
+  </si>
+  <si>
+    <t>76020.90</t>
+  </si>
+  <si>
+    <t>139292.25</t>
+  </si>
+  <si>
+    <t>4598.00</t>
+  </si>
+  <si>
+    <t>25203.99</t>
+  </si>
+  <si>
+    <t>2761.42</t>
+  </si>
+  <si>
+    <t>4236.00</t>
+  </si>
+  <si>
+    <t>11062.16</t>
+  </si>
+  <si>
+    <t>1229.28</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>864.72</t>
+  </si>
+  <si>
+    <t>246.27</t>
+  </si>
+  <si>
+    <t>36998.90</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>190227.31</t>
+  </si>
+  <si>
+    <t>15870.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>951.76</t>
+  </si>
+  <si>
+    <t>413.20</t>
+  </si>
+  <si>
+    <t>1481.72</t>
+  </si>
+  <si>
+    <t>2348.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>1638.30</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>17283.00</t>
+  </si>
+  <si>
+    <t>1610.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>81127.04</t>
+  </si>
+  <si>
+    <t>1991.25</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>190705.00</t>
+  </si>
+  <si>
+    <t>20030.00</t>
+  </si>
+  <si>
+    <t>6665.00</t>
+  </si>
+  <si>
+    <t>1720.00</t>
+  </si>
+  <si>
+    <t>8480.00</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t>372.60</t>
+  </si>
+  <si>
+    <t>2906.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>391178.31</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>11.27</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>629.32</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>21624.00</t>
+  </si>
+  <si>
+    <t>2434.00</t>
+  </si>
+  <si>
+    <t>4122.50</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>27888.00</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>33297.90</t>
+  </si>
+  <si>
+    <t>3439.50</t>
+  </si>
+  <si>
+    <t>778.00</t>
+  </si>
+  <si>
+    <t>423.86</t>
+  </si>
+  <si>
+    <t>568.70</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>14800.00</t>
+  </si>
+  <si>
+    <t>7949.00</t>
+  </si>
+  <si>
+    <t>1806.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>3080.00</t>
+  </si>
+  <si>
+    <t>456.50</t>
+  </si>
+  <si>
+    <t>3505.06</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1657.50</t>
+  </si>
+  <si>
+    <t>19199.98</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1548.86</t>
+  </si>
+  <si>
+    <t>1196.00</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>279.11</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>35.91</t>
+  </si>
+  <si>
+    <t>1410.00</t>
+  </si>
+  <si>
+    <t>2129.60</t>
+  </si>
+  <si>
+    <t>164.74</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>2005.24</t>
+  </si>
+  <si>
+    <t>844.00</t>
+  </si>
+  <si>
+    <t>2796.00</t>
+  </si>
+  <si>
+    <t>9910.00</t>
+  </si>
+  <si>
+    <t>2840.79</t>
+  </si>
+  <si>
+    <t>14485.00</t>
+  </si>
+  <si>
+    <t>19780.00</t>
+  </si>
+  <si>
+    <t>314.38</t>
+  </si>
+  <si>
+    <t>4816.82</t>
+  </si>
+  <si>
+    <t>1122.22</t>
+  </si>
+  <si>
+    <t>95182.50</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>3860.00</t>
+  </si>
+  <si>
+    <t>2120.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>305.50</t>
+  </si>
+  <si>
+    <t>8735.23</t>
+  </si>
+  <si>
+    <t>2607.13</t>
+  </si>
+  <si>
+    <t>837922.72</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>5464.00</t>
+  </si>
+  <si>
+    <t>101340.00</t>
+  </si>
+  <si>
+    <t>9870.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>960.74</t>
+  </si>
+  <si>
+    <t>73278.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>6915.00</t>
+  </si>
+  <si>
+    <t>7070.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
   </si>
 </sst>
 </file>
